--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -492,33 +477,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002512</v>
+        <v>0.001717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001547</v>
+        <v>0.001754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00163</v>
+        <v>0.001807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001717</v>
+        <v>0.001737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001754</v>
+        <v>0.001831</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001807</v>
+        <v>0.001833</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001737</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.001831</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.001833</v>
-      </c>
-      <c r="K2" t="n">
         <v>0.00184</v>
       </c>
     </row>
@@ -529,33 +505,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03195</v>
+        <v>0.001526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00329</v>
+        <v>0.00157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001618</v>
+        <v>0.001633</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001526</v>
+        <v>0.001671</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00157</v>
+        <v>0.001725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001633</v>
+        <v>0.001727</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001671</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001725</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.001727</v>
-      </c>
-      <c r="K3" t="n">
         <v>0.001761</v>
       </c>
     </row>
@@ -566,33 +533,24 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5629</v>
+        <v>0.003988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05142</v>
+        <v>0.002181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0112</v>
+        <v>0.00165</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003988</v>
+        <v>0.001514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002181</v>
+        <v>0.001509</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00165</v>
+        <v>0.001526</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001514</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.001509</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.001526</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.001563</v>
       </c>
     </row>
@@ -603,181 +561,164 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.895</v>
+        <v>0.02004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2792</v>
+        <v>0.008288999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06126</v>
+        <v>0.00418</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02004</v>
+        <v>0.002629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008288999999999999</v>
+        <v>0.00198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00418</v>
+        <v>0.001682</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002629</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00198</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.001682</v>
-      </c>
-      <c r="K5" t="n">
         <v>0.001563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.294</v>
+        <v>0.04198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8983</v>
+        <v>0.01707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2049</v>
+        <v>0.008189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06769</v>
+        <v>0.004485</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02787</v>
+        <v>0.002816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01327</v>
+        <v>0.002013</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007196</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.004397</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.002994</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.002262</v>
+        <v>0.001612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.69</v>
+        <v>0.06769</v>
       </c>
       <c r="C7" t="n">
-        <v>2.224</v>
+        <v>0.02787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5133</v>
+        <v>0.01327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1713</v>
+        <v>0.007196</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07179000000000001</v>
+        <v>0.004397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03415</v>
+        <v>0.002994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01819</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01051</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006621</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.004472</v>
+        <v>0.002262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.37</v>
+        <v>0.1713</v>
       </c>
       <c r="C8" t="n">
-        <v>4.624</v>
+        <v>0.07179000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>1.076</v>
+        <v>0.03415</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3656</v>
+        <v>0.01819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1537</v>
+        <v>0.01051</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07402</v>
+        <v>0.006621</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0394</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.02287</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01407</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.009089</v>
+        <v>0.004472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1537</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07402</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02287</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01407</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.009089</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>87.76000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.667999999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.026</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
         <v>0.6853</v>
       </c>
-      <c r="F9" t="n">
+      <c r="C10" t="n">
         <v>0.289</v>
       </c>
-      <c r="G9" t="n">
+      <c r="D10" t="n">
         <v>0.1394</v>
       </c>
-      <c r="H9" t="n">
+      <c r="E10" t="n">
         <v>0.07603</v>
       </c>
-      <c r="I9" t="n">
+      <c r="F10" t="n">
         <v>0.04377</v>
       </c>
-      <c r="J9" t="n">
+      <c r="G10" t="n">
         <v>0.02686</v>
       </c>
-      <c r="K9" t="n">
+      <c r="H10" t="n">
         <v>0.01738</v>
       </c>
     </row>

--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,253 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001717</v>
+        <v>0.001863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001754</v>
+        <v>0.001862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001807</v>
+        <v>0.001549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001737</v>
+        <v>0.001732</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001831</v>
+        <v>0.001742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001833</v>
+        <v>0.00187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00184</v>
+        <v>0.001892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001526</v>
+        <v>0.001822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00157</v>
+        <v>0.001855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001633</v>
+        <v>0.001768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001671</v>
+        <v>0.001865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001725</v>
+        <v>0.001483</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001727</v>
+        <v>0.00174</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001761</v>
+        <v>0.001853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003988</v>
+        <v>0.00146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002181</v>
+        <v>0.001809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00165</v>
+        <v>0.001845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001514</v>
+        <v>0.001838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001509</v>
+        <v>0.001781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001526</v>
+        <v>0.001822</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001563</v>
+        <v>0.001837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02004</v>
+        <v>0.001698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008288999999999999</v>
+        <v>0.001784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00418</v>
+        <v>0.001457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002629</v>
+        <v>0.001824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00198</v>
+        <v>0.001557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001682</v>
+        <v>0.001818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001563</v>
+        <v>0.001864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04198</v>
+        <v>0.001666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01707</v>
+        <v>0.001718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008189</v>
+        <v>0.001763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004485</v>
+        <v>0.001745</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002816</v>
+        <v>0.001825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002013</v>
+        <v>0.001806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001612</v>
+        <v>0.001829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06769</v>
+        <v>0.00133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02787</v>
+        <v>0.001582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01327</v>
+        <v>0.001724</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007196</v>
+        <v>0.00178</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004397</v>
+        <v>0.001727</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002994</v>
+        <v>0.001819</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002262</v>
+        <v>0.001685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1713</v>
+        <v>0.001439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07179000000000001</v>
+        <v>0.001451</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03415</v>
+        <v>0.00151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01819</v>
+        <v>0.001706</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01051</v>
+        <v>0.001751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006621</v>
+        <v>0.001788</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004472</v>
+        <v>0.001762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3656</v>
+        <v>0.001505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1537</v>
+        <v>0.001532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07402</v>
+        <v>0.00156</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0394</v>
+        <v>0.001673</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02287</v>
+        <v>0.001721</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01407</v>
+        <v>0.001709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009089</v>
+        <v>0.001752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001318</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001411</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.001599</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001136</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001698</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001666</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001501</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001429</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001513</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001571</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001648</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.001677</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001574</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.001695</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001526</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001419</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001097</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001635</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.001619</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00159</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.001892</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001411</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001374</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001338</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001474</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.002209</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001492</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001179</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001559</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.001414</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.001627</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002547</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001539</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001473</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001532</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001549</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00326</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.001949</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001518</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001491</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.001377</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.001243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.003966</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001507</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001505</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001375</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001297</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.004768</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002533</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001791</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001558</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.001499</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.001483</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.00139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.006111</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.002887</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001855</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001553</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001352</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.001266</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.007501</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003335</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.002054</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001444</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.001502</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.009438</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.004162</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002444</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001824</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00157</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001313</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.001406</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01134</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.004851</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.00278</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001978</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001642</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001537</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.001443</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005904</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.003184</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002153</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001454</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001547</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.001504</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01674</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00657</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.003652</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002262</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.001833</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.001551</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.001532</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01991</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.008397999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.004279</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.002654</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.001997</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001675</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.001305</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02349</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.009731</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.004925</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.002881</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.002116</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.001417</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02767</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01163</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.005666</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.003387</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001863</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001634</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.03212</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01356</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.006398</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.003791</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.002508</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001984</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.03802</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.007738</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.004331</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.002799</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00211</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.001787</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.04301</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01824</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.008814000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.004935</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00293</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.002222</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.001832</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05034</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02107</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01016</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.005301</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002499</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001976</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.05901</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02377</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01128</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.006247</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.003989</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.002591</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.002104</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.06655</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02703</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01315</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.007184</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.004422</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.003038</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.07561</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0314</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01512</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.008173</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.003309</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.002403</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.08763</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03561</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01713</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.009276</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.005426</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.003586</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.002599</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.09637</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.04006</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01947</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01056</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00614</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.004076</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.002889</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.04526</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02181</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01166</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.006872</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.004386</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.003148</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1227</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05183</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.02454</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01315</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.007671</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.004975</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.003465</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05733</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.02738</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01441</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.008659</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.00515</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.003791</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.06320000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03094</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01627</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.009606</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.005994</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.00404</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1721</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.07094</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.03447</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01808</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01047</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.006641</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.004487</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1914</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.07771</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0381</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01999</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01151</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.007109</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.00493</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2103</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.08797000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.04252</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02198</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01292</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.008097999999999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.005203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2307</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.09618</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.04652</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.02484</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01411</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.005822</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.04972</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.02748</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01559</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.009701</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.006336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2769</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.05695</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.02983</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01071</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.006963</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3072</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.06152</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.03289</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01917</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.007709</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3356</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03606</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02075</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01265</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.008293999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.07278</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02266</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01388</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.009109000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3957</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.08047</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.04338</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02484</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.009913999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4315</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1815</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.04702</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02648</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01668</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01085</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4551</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1985</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.05118</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.02898</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01805</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01175</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.05481</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.03209</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01946</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01272</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5504</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2288</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1099</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.05963</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.03388</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5755</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.06485</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03698</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02315</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01486</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6353</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2688</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.07028</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.04063</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.02409</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01616</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.6853</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1394</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.07603</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.04377</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.02686</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.01738</v>
+      <c r="B57" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2814</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.07537000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.04361</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02725</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.04198</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01707</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.008189</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.004485</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.002816</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.002013</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.001612</v>
       </c>
     </row>
   </sheetData>

--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001863</v>
+        <v>7.293000000000001e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001862</v>
+        <v>3.082e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001549</v>
+        <v>1.564e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001732</v>
+        <v>8.513e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001742</v>
+        <v>5.125e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00187</v>
+        <v>3.236e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001892</v>
+        <v>2.152e-09</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001822</v>
+        <v>1.124e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001855</v>
+        <v>5.081e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001768</v>
+        <v>2.489e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001865</v>
+        <v>1.394e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001483</v>
+        <v>8.097e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00174</v>
+        <v>5.2e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001853</v>
+        <v>3.444e-08</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00146</v>
+        <v>5.877e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001809</v>
+        <v>2.601e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001845</v>
+        <v>1.266e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001838</v>
+        <v>6.989e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001781</v>
+        <v>4.188e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001822</v>
+        <v>2.633e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001837</v>
+        <v>1.742e-07</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001698</v>
+        <v>1.858e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001784</v>
+        <v>7.893999999999999e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001457</v>
+        <v>4.031e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001824</v>
+        <v>2.207e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001557</v>
+        <v>1.33e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001818</v>
+        <v>8.229e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001864</v>
+        <v>5.497e-07</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +589,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001666</v>
+        <v>4.583e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001718</v>
+        <v>1.944e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001763</v>
+        <v>9.833000000000001e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001745</v>
+        <v>5.381e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001825</v>
+        <v>3.23e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001806</v>
+        <v>2.014e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001829</v>
+        <v>1.361e-06</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +617,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00133</v>
+        <v>9.409e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001582</v>
+        <v>4.071e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001724</v>
+        <v>2.003e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00178</v>
+        <v>1.137e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001727</v>
+        <v>6.593e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001819</v>
+        <v>4.206e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001685</v>
+        <v>2.796e-06</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001439</v>
+        <v>0.0001752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001451</v>
+        <v>7.588999999999999e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00151</v>
+        <v>3.744e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001706</v>
+        <v>2.086e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001751</v>
+        <v>1.243e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001788</v>
+        <v>7.897000000000001e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001762</v>
+        <v>5.149e-06</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001505</v>
+        <v>0.0003033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001532</v>
+        <v>0.0001273</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00156</v>
+        <v>6.415e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001673</v>
+        <v>3.492e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001721</v>
+        <v>2.073e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001709</v>
+        <v>1.348e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001752</v>
+        <v>8.851e-06</v>
       </c>
     </row>
     <row r="10">
@@ -701,25 +701,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001318</v>
+        <v>0.0004701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001411</v>
+        <v>0.0002066</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001599</v>
+        <v>0.0001023</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001136</v>
+        <v>5.648e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001698</v>
+        <v>3.371e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001666</v>
+        <v>2.125e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001501</v>
+        <v>1.409e-05</v>
       </c>
     </row>
     <row r="11">
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001429</v>
+        <v>0.0007317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001513</v>
+        <v>0.0003177</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001348</v>
+        <v>0.0001571</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001571</v>
+        <v>8.577e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001648</v>
+        <v>5.082e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001677</v>
+        <v>3.237e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001574</v>
+        <v>2.15e-05</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001695</v>
+        <v>0.001069</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001526</v>
+        <v>0.0004642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001419</v>
+        <v>0.00023</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001097</v>
+        <v>0.0001273</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001635</v>
+        <v>7.511e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001619</v>
+        <v>4.769e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00159</v>
+        <v>3.131e-05</v>
       </c>
     </row>
     <row r="13">
@@ -785,25 +785,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001892</v>
+        <v>0.001518</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001411</v>
+        <v>0.0006521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001374</v>
+        <v>0.0003229</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00116</v>
+        <v>0.0001811</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001338</v>
+        <v>0.0001069</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001474</v>
+        <v>6.629e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001656</v>
+        <v>4.451e-05</v>
       </c>
     </row>
     <row r="14">
@@ -813,25 +813,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002209</v>
+        <v>0.002079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001617</v>
+        <v>0.0008909</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001492</v>
+        <v>0.0004503</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001179</v>
+        <v>0.0002494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001559</v>
+        <v>0.0001482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001414</v>
+        <v>9.347e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001627</v>
+        <v>6.235e-05</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +841,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002547</v>
+        <v>0.002782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00176</v>
+        <v>0.001208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001539</v>
+        <v>0.000606</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001473</v>
+        <v>0.0003315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001532</v>
+        <v>0.0001984</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001549</v>
+        <v>0.0001252</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001411</v>
+        <v>8.211e-05</v>
       </c>
     </row>
     <row r="16">
@@ -869,25 +869,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00326</v>
+        <v>0.003652</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001949</v>
+        <v>0.001587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001518</v>
+        <v>0.0007944</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001491</v>
+        <v>0.0004403</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001377</v>
+        <v>0.0002611</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00153</v>
+        <v>0.0001651</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001243</v>
+        <v>0.0001087</v>
       </c>
     </row>
     <row r="17">
@@ -897,25 +897,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003966</v>
+        <v>0.0048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002204</v>
+        <v>0.002062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001643</v>
+        <v>0.001038</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001507</v>
+        <v>0.0005679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001505</v>
+        <v>0.0003376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001375</v>
+        <v>0.0002136</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001297</v>
+        <v>0.0001409</v>
       </c>
     </row>
     <row r="18">
@@ -925,25 +925,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004768</v>
+        <v>0.006113</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002533</v>
+        <v>0.002633</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001791</v>
+        <v>0.001328</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001558</v>
+        <v>0.0007238</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001499</v>
+        <v>0.0004343</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001483</v>
+        <v>0.0002694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00139</v>
+        <v>0.0001804</v>
       </c>
     </row>
     <row r="19">
@@ -953,25 +953,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006111</v>
+        <v>0.007714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002887</v>
+        <v>0.003288</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001855</v>
+        <v>0.00167</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001553</v>
+        <v>0.0009153</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001352</v>
+        <v>0.0005239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0015</v>
+        <v>0.0003434</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001266</v>
+        <v>0.0002277</v>
       </c>
     </row>
     <row r="20">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007501</v>
+        <v>0.009455</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003335</v>
+        <v>0.004074</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002054</v>
+        <v>0.002045</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001444</v>
+        <v>0.001125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001542</v>
+        <v>0.0006683</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001502</v>
+        <v>0.0004213</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00148</v>
+        <v>0.0002826</v>
       </c>
     </row>
     <row r="21">
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009438</v>
+        <v>0.0115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004162</v>
+        <v>0.005066</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002444</v>
+        <v>0.002481</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001824</v>
+        <v>0.001385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00157</v>
+        <v>0.0007944</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001313</v>
+        <v>0.000525</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001406</v>
+        <v>0.0003413</v>
       </c>
     </row>
     <row r="22">
@@ -1037,25 +1037,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01134</v>
+        <v>0.01394</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004851</v>
+        <v>0.006084</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00278</v>
+        <v>0.003043</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001978</v>
+        <v>0.001703</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001642</v>
+        <v>0.001009</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001537</v>
+        <v>0.0006324</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001443</v>
+        <v>0.0004192</v>
       </c>
     </row>
     <row r="23">
@@ -1065,25 +1065,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0136</v>
+        <v>0.01717</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005904</v>
+        <v>0.007336</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003184</v>
+        <v>0.003636</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002153</v>
+        <v>0.002018</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001454</v>
+        <v>0.001215</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001547</v>
+        <v>0.0007624</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001504</v>
+        <v>0.0005079</v>
       </c>
     </row>
     <row r="24">
@@ -1093,25 +1093,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01674</v>
+        <v>0.01998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00657</v>
+        <v>0.008765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003652</v>
+        <v>0.004337</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002262</v>
+        <v>0.002408</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001833</v>
+        <v>0.001438</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001551</v>
+        <v>0.0009051</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001532</v>
+        <v>0.0006079</v>
       </c>
     </row>
     <row r="25">
@@ -1121,25 +1121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01991</v>
+        <v>0.02403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008397999999999999</v>
+        <v>0.01044</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004279</v>
+        <v>0.005188</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002654</v>
+        <v>0.002913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001997</v>
+        <v>0.001718</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001675</v>
+        <v>0.001082</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001305</v>
+        <v>0.0007032</v>
       </c>
     </row>
     <row r="26">
@@ -1149,25 +1149,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02349</v>
+        <v>0.02838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009731</v>
+        <v>0.01235</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004925</v>
+        <v>0.006083</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002881</v>
+        <v>0.003399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002116</v>
+        <v>0.002018</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00176</v>
+        <v>0.001257</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001417</v>
+        <v>0.0008411</v>
       </c>
     </row>
     <row r="27">
@@ -1177,25 +1177,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02767</v>
+        <v>0.03331</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01163</v>
+        <v>0.01433</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005666</v>
+        <v>0.007146</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003387</v>
+        <v>0.003951</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00235</v>
+        <v>0.002357</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001863</v>
+        <v>0.001471</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001634</v>
+        <v>0.0009878</v>
       </c>
     </row>
     <row r="28">
@@ -1205,25 +1205,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03212</v>
+        <v>0.03844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01356</v>
+        <v>0.01682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006398</v>
+        <v>0.008422000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003791</v>
+        <v>0.004583</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002508</v>
+        <v>0.002714</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001984</v>
+        <v>0.001709</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0014</v>
+        <v>0.001149</v>
       </c>
     </row>
     <row r="29">
@@ -1233,25 +1233,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03802</v>
+        <v>0.04434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01558</v>
+        <v>0.0191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007738</v>
+        <v>0.009629</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004331</v>
+        <v>0.00528</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002799</v>
+        <v>0.003155</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00211</v>
+        <v>0.002</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001787</v>
+        <v>0.001316</v>
       </c>
     </row>
     <row r="30">
@@ -1261,25 +1261,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04301</v>
+        <v>0.0513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01824</v>
+        <v>0.02214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008814000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004935</v>
+        <v>0.006089</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00293</v>
+        <v>0.003693</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002222</v>
+        <v>0.00233</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001832</v>
+        <v>0.001524</v>
       </c>
     </row>
     <row r="31">
@@ -1289,25 +1289,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.05034</v>
+        <v>0.0586</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02107</v>
+        <v>0.02546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01016</v>
+        <v>0.01269</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005301</v>
+        <v>0.007011</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00358</v>
+        <v>0.004143</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002499</v>
+        <v>0.00264</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001976</v>
+        <v>0.001772</v>
       </c>
     </row>
     <row r="32">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05901</v>
+        <v>0.0665</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02377</v>
+        <v>0.02871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01128</v>
+        <v>0.01439</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006247</v>
+        <v>0.008103000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003989</v>
+        <v>0.00474</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002591</v>
+        <v>0.003033</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002104</v>
+        <v>0.001998</v>
       </c>
     </row>
     <row r="33">
@@ -1345,25 +1345,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06655</v>
+        <v>0.07679</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02703</v>
+        <v>0.03299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01315</v>
+        <v>0.01645</v>
       </c>
       <c r="E33" t="n">
-        <v>0.007184</v>
+        <v>0.009054</v>
       </c>
       <c r="F33" t="n">
-        <v>0.004422</v>
+        <v>0.005367</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003038</v>
+        <v>0.003407</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002278</v>
+        <v>0.002233</v>
       </c>
     </row>
     <row r="34">
@@ -1373,25 +1373,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07561</v>
+        <v>0.08642</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0314</v>
+        <v>0.03689</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01512</v>
+        <v>0.01868</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008173</v>
+        <v>0.01027</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004867</v>
+        <v>0.00607</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003309</v>
+        <v>0.003882</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002403</v>
+        <v>0.002568</v>
       </c>
     </row>
     <row r="35">
@@ -1401,25 +1401,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08763</v>
+        <v>0.09732</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03561</v>
+        <v>0.04236</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01713</v>
+        <v>0.02075</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009276</v>
+        <v>0.01156</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005426</v>
+        <v>0.00667</v>
       </c>
       <c r="G35" t="n">
-        <v>0.003586</v>
+        <v>0.004196</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002599</v>
+        <v>0.002912</v>
       </c>
     </row>
     <row r="36">
@@ -1429,25 +1429,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.09637</v>
+        <v>0.1088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04006</v>
+        <v>0.0475</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01947</v>
+        <v>0.02346</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01056</v>
+        <v>0.01303</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00614</v>
+        <v>0.007743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004076</v>
+        <v>0.004827</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002889</v>
+        <v>0.003256</v>
       </c>
     </row>
     <row r="37">
@@ -1457,25 +1457,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.111</v>
+        <v>0.1229</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04526</v>
+        <v>0.0527</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02181</v>
+        <v>0.02635</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01166</v>
+        <v>0.01464</v>
       </c>
       <c r="F37" t="n">
-        <v>0.006872</v>
+        <v>0.008728</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004386</v>
+        <v>0.005496</v>
       </c>
       <c r="H37" t="n">
-        <v>0.003148</v>
+        <v>0.003629</v>
       </c>
     </row>
     <row r="38">
@@ -1485,25 +1485,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1227</v>
+        <v>0.136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05183</v>
+        <v>0.05848</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02454</v>
+        <v>0.02905</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01315</v>
+        <v>0.01587</v>
       </c>
       <c r="F38" t="n">
-        <v>0.007671</v>
+        <v>0.009750999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004975</v>
+        <v>0.006204</v>
       </c>
       <c r="H38" t="n">
-        <v>0.003465</v>
+        <v>0.004028</v>
       </c>
     </row>
     <row r="39">
@@ -1513,25 +1513,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1395</v>
+        <v>0.1514</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05733</v>
+        <v>0.0659</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02738</v>
+        <v>0.03218</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01441</v>
+        <v>0.01792</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008659</v>
+        <v>0.01076</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00515</v>
+        <v>0.006785</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003791</v>
+        <v>0.004448</v>
       </c>
     </row>
     <row r="40">
@@ -1541,25 +1541,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1532</v>
+        <v>0.1657</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.07233000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03094</v>
+        <v>0.03556</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01627</v>
+        <v>0.02</v>
       </c>
       <c r="F40" t="n">
-        <v>0.009606</v>
+        <v>0.01197</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005994</v>
+        <v>0.007542</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00404</v>
+        <v>0.004989</v>
       </c>
     </row>
     <row r="41">
@@ -1569,25 +1569,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1721</v>
+        <v>0.187</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07094</v>
+        <v>0.08022</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03447</v>
+        <v>0.04056</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01808</v>
+        <v>0.02224</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01047</v>
+        <v>0.01311</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006641</v>
+        <v>0.008427</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004487</v>
+        <v>0.005491</v>
       </c>
     </row>
     <row r="42">
@@ -1597,25 +1597,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1914</v>
+        <v>0.2048</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07771</v>
+        <v>0.08760999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0381</v>
+        <v>0.04352</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01999</v>
+        <v>0.02459</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01151</v>
+        <v>0.01457</v>
       </c>
       <c r="G42" t="n">
-        <v>0.007109</v>
+        <v>0.009266999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00493</v>
+        <v>0.006125</v>
       </c>
     </row>
     <row r="43">
@@ -1625,25 +1625,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2103</v>
+        <v>0.2262</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08797000000000001</v>
+        <v>0.09777</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04252</v>
+        <v>0.04905</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02198</v>
+        <v>0.02665</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01292</v>
+        <v>0.01597</v>
       </c>
       <c r="G43" t="n">
-        <v>0.008097999999999999</v>
+        <v>0.0102</v>
       </c>
       <c r="H43" t="n">
-        <v>0.005203</v>
+        <v>0.006609</v>
       </c>
     </row>
     <row r="44">
@@ -1653,25 +1653,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2307</v>
+        <v>0.249</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09618</v>
+        <v>0.1078</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04652</v>
+        <v>0.05321</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02484</v>
+        <v>0.02968</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01411</v>
+        <v>0.01781</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00882</v>
+        <v>0.0112</v>
       </c>
       <c r="H44" t="n">
-        <v>0.005822</v>
+        <v>0.007295</v>
       </c>
     </row>
     <row r="45">
@@ -1681,25 +1681,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.251</v>
+        <v>0.2723</v>
       </c>
       <c r="C45" t="n">
-        <v>0.105</v>
+        <v>0.1173</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04972</v>
+        <v>0.0592</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02748</v>
+        <v>0.03264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01559</v>
+        <v>0.01937</v>
       </c>
       <c r="G45" t="n">
-        <v>0.009701</v>
+        <v>0.01218</v>
       </c>
       <c r="H45" t="n">
-        <v>0.006336</v>
+        <v>0.007911</v>
       </c>
     </row>
     <row r="46">
@@ -1709,25 +1709,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2769</v>
+        <v>0.2982</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1163</v>
+        <v>0.1288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05695</v>
+        <v>0.06333</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02983</v>
+        <v>0.03596</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01712</v>
+        <v>0.02105</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01071</v>
+        <v>0.01311</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006963</v>
+        <v>0.008925000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1737,25 +1737,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3072</v>
+        <v>0.3254</v>
       </c>
       <c r="C47" t="n">
-        <v>0.125</v>
+        <v>0.1396</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06152</v>
+        <v>0.07002</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03289</v>
+        <v>0.03898</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01917</v>
+        <v>0.02314</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01164</v>
+        <v>0.01413</v>
       </c>
       <c r="H47" t="n">
-        <v>0.007709</v>
+        <v>0.009696</v>
       </c>
     </row>
     <row r="48">
@@ -1765,25 +1765,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3356</v>
+        <v>0.3579</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1399</v>
+        <v>0.1552</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0675</v>
+        <v>0.07627</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03606</v>
+        <v>0.04179</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02075</v>
+        <v>0.02504</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01265</v>
+        <v>0.01598</v>
       </c>
       <c r="H48" t="n">
-        <v>0.008293999999999999</v>
+        <v>0.01053</v>
       </c>
     </row>
     <row r="49">
@@ -1793,25 +1793,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3659</v>
+        <v>0.3847</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1532</v>
+        <v>0.1647</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07278</v>
+        <v>0.08424</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0394</v>
+        <v>0.04635</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02266</v>
+        <v>0.02739</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01388</v>
+        <v>0.01737</v>
       </c>
       <c r="H49" t="n">
-        <v>0.009109000000000001</v>
+        <v>0.01144</v>
       </c>
     </row>
     <row r="50">
@@ -1821,25 +1821,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3957</v>
+        <v>0.4158</v>
       </c>
       <c r="C50" t="n">
-        <v>0.166</v>
+        <v>0.1824</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08047</v>
+        <v>0.09098000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04338</v>
+        <v>0.0504</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02484</v>
+        <v>0.02968</v>
       </c>
       <c r="G50" t="n">
-        <v>0.015</v>
+        <v>0.01891</v>
       </c>
       <c r="H50" t="n">
-        <v>0.009913999999999999</v>
+        <v>0.01228</v>
       </c>
     </row>
     <row r="51">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.4315</v>
+        <v>0.4568</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1815</v>
+        <v>0.1974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0877</v>
+        <v>0.09651</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04702</v>
+        <v>0.05394</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02648</v>
+        <v>0.03197</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01668</v>
+        <v>0.02025</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01085</v>
+        <v>0.01322</v>
       </c>
     </row>
     <row r="52">
@@ -1877,25 +1877,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4551</v>
+        <v>0.4933</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1985</v>
+        <v>0.2137</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09556000000000001</v>
+        <v>0.1066</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05118</v>
+        <v>0.05832</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02898</v>
+        <v>0.03509</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01805</v>
+        <v>0.0221</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01175</v>
+        <v>0.01473</v>
       </c>
     </row>
     <row r="53">
@@ -1905,25 +1905,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5042</v>
+        <v>0.528</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2143</v>
+        <v>0.2272</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1013</v>
+        <v>0.1145</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05481</v>
+        <v>0.06287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03209</v>
+        <v>0.03684</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01946</v>
+        <v>0.02379</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01272</v>
+        <v>0.01574</v>
       </c>
     </row>
     <row r="54">
@@ -1933,25 +1933,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5504</v>
+        <v>0.5729</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2288</v>
+        <v>0.249</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1099</v>
+        <v>0.1229</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05963</v>
+        <v>0.06852</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03388</v>
+        <v>0.04025</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0212</v>
+        <v>0.02537</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01367</v>
+        <v>0.01687</v>
       </c>
     </row>
     <row r="55">
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5755</v>
+        <v>0.6192</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2475</v>
+        <v>0.2713</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1207</v>
+        <v>0.1327</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06485</v>
+        <v>0.07374</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03698</v>
+        <v>0.04357</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02315</v>
+        <v>0.02784</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01486</v>
+        <v>0.01845</v>
       </c>
     </row>
     <row r="56">
@@ -1989,25 +1989,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.6353</v>
+        <v>0.67</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2688</v>
+        <v>0.2879</v>
       </c>
       <c r="D56" t="n">
-        <v>0.13</v>
+        <v>0.1412</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07028</v>
+        <v>0.08013000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04063</v>
+        <v>0.0476</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02409</v>
+        <v>0.02952</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01616</v>
+        <v>0.01983</v>
       </c>
     </row>
     <row r="57">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.7177</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2814</v>
+        <v>0.3021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1414</v>
+        <v>0.1549</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07537000000000001</v>
+        <v>0.08491</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04361</v>
+        <v>0.05043</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02725</v>
+        <v>0.03168</v>
       </c>
       <c r="H57" t="n">
-        <v>0.017</v>
+        <v>0.02117</v>
       </c>
     </row>
     <row r="58">
